--- a/заказы/филиалы и опт/2024/03,24/04,03,24 Ост КИ филиалы/дв 04,03,24 бррсч ост ки.xlsx
+++ b/заказы/филиалы и опт/2024/03,24/04,03,24 Ост КИ филиалы/дв 04,03,24 бррсч ост ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,03,24 Ост филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\03,24\04,03,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD204D82-ACB0-47DD-8F03-0578F41FAF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1097AD1-659D-455A-BF7A-F4FB6FE70E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -356,6 +356,9 @@
   <si>
     <t>заказ</t>
   </si>
+  <si>
+    <t>завод вывел</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +404,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -481,6 +490,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -787,8 +797,8 @@
   <dimension ref="A1:AX500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R48" sqref="R48"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1139,7 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>8169.6473999999989</v>
+        <v>8002.2473999999993</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
@@ -1161,7 +1171,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="4">
         <f>SUM(AA6:AA500)</f>
-        <v>4694.2654000000002</v>
+        <v>4642.3714</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -7767,7 +7777,7 @@
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="6">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H73" s="1" t="e">
         <v>#N/A</v>
@@ -7789,15 +7799,14 @@
         <f t="shared" si="17"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="P73" s="5">
-        <f>9*O73-N73-F73</f>
-        <v>167.4</v>
+      <c r="P73" s="14">
+        <v>0</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1">
         <f t="shared" si="18"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
         <f t="shared" si="19"/>
@@ -7818,10 +7827,12 @@
       <c r="Y73" s="1">
         <v>0</v>
       </c>
-      <c r="Z73" s="1"/>
+      <c r="Z73" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AA73" s="1">
         <f t="shared" si="16"/>
-        <v>51.893999999999998</v>
+        <v>0</v>
       </c>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
